--- a/curtailment_analyses_data.xlsx
+++ b/curtailment_analyses_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmi\Coding\BM_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F5E1F4-EC22-45AD-9161-0C18AF49E307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D861DC70-C7F7-4B06-8706-0F18EA0B5CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -684,6 +684,43 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-CB4E-4152-9960-7D954F23AAF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2024</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$33:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>540099.56999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>587487.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5813-459D-AB81-62691BA1E3EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2622,15 +2659,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2959,8 +2996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3276,7 +3313,7 @@
         <v>27</v>
       </c>
       <c r="B33">
-        <v>-540099.56999999995</v>
+        <v>540099.56999999995</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -3284,7 +3321,7 @@
         <v>28</v>
       </c>
       <c r="B34">
-        <v>-587487.71</v>
+        <v>587487.71</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
